--- a/Avg_SD.xlsx
+++ b/Avg_SD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Final Year Project\Updated Version\Reinforcement-Based-Genetic-Algorithm-For-TTP-Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6582A724-5ECE-4DCC-8EDA-86F9269EEF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFC689E-E1F9-4E1A-BF8F-40F4988DB3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C98FBD04-49DC-4539-B5E2-364B5BC02181}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DBC66F-B2CB-4AEE-AA4A-2E75E8F46078}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,6 +421,22 @@
         <v>9459214.2650364693</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>8527678.7825117297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>8243897.2910000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
